--- a/medicine/Œil et vue/Syndrome_d'Alagille/Syndrome_d'Alagille.xlsx
+++ b/medicine/Œil et vue/Syndrome_d'Alagille/Syndrome_d'Alagille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Alagille</t>
+          <t>Syndrome_d'Alagille</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome d’Alagille est l’association d’un défaut de développement des voies biliaires intra-hépatiques, d’une cardiopathie congénitale (de transmission autosomique dominante), d’un faciès caractéristique, d’une déformation typique des vertèbres et d’une anomalie oculaire typique.
 La mortalité de ce syndrome est d’environ 10 % en raison principalement de complications cardiaques et surtout hépatiques.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Alagille</t>
+          <t>Syndrome_d'Alagille</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Cause</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est causé par une mutation du gène JAG1[1] ou du gène NOTCH2[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est causé par une mutation du gène JAG1 ou du gène NOTCH2.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Alagille</t>
+          <t>Syndrome_d'Alagille</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Description et diagnostic</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome d’Alagille a été décrit en 1975 par Daniel Alagille comme l’association de manifestations hépatiques
-[3],[4] qui se révèlent par une cholestase se manifestant par un ictère (jaunisse) dès les premiers jours de la vie avec décoloration des selles. Cet ictère peut s’accompagner de démangeaison importantes qui est le symptôme le plus rapporté[5]. La biopsie hépatique permet de confirmer la diminution des canaux biliaires bien que cette caractéristique ne soit pas toujours présent à la naissance.
+, qui se révèlent par une cholestase se manifestant par un ictère (jaunisse) dès les premiers jours de la vie avec décoloration des selles. Cet ictère peut s’accompagner de démangeaison importantes qui est le symptôme le plus rapporté. La biopsie hépatique permet de confirmer la diminution des canaux biliaires bien que cette caractéristique ne soit pas toujours présent à la naissance.
 L’anomalie cardiaque (cardiopathie congénitale) la plus fréquente est une sténose localisée des branches de l’artère pulmonaire sans conséquence pathologique mais une sténose de la branche principale de l’artère pulmonaire ou une tétralogie de Fallot est décelée.
 Du côté du faciès : le front est bombé, les yeux écartés, et le menton pointu et en avant. Les vues uniquement par radiographie avec vertèbres en aile de papillon par absence de fusion de l’arc antérieur. Aucune conséquence médicale de cette anomalie.
 Anomalies oculaires particulières : recherchées par un ophtalmologue pour confirmer le diagnostic, cette anomalie est un embryotoxon.
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Alagille</t>
+          <t>Syndrome_d'Alagille</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Conditions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En fonction du degré d'atteinte, la vie avec le syndrome d'Alagille varie. Ainsi pour des personnes qui ne manifestent pas de teint jaunâtre ni de gonflement abdominal important, la vie avec le syndrome d'Alagille n'est en rien différente de la vie d'une personne normale.
 70 % des enfants atteints par le syndrome d'Alagille « guérissent » vers l'âge de deux ans[réf. nécessaire].
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Alagille</t>
+          <t>Syndrome_d'Alagille</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,55 +634,58 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cholestase néonatale
-Plus d’une centaine de causes de cholestase néonatale sont connues mais il faut éliminer en premier :
+          <t>Cholestase néonatale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Plus d’une centaine de causes de cholestase néonatale sont connues mais il faut éliminer en premier :
 Causes infectieuses
 Galactosémie
 Atrésie biliaire
 Mucoviscidose
-Déficit en Alpha-1-Antitrypsine
-Sténose de l’artère pulmonaire
-Syndrome de Noonan
+Déficit en Alpha-1-Antitrypsine</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Syndrome_d'Alagille</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_d%27Alagille</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Diagnostic différentiel</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sténose de l’artère pulmonaire</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Syndrome de Noonan
 Syndrome de Watson
 Syndrome LEOPARD
 Trisomie 21
-Syndrome de Williams
-Tétralogie de Fallot
-Microdélétion 22q11
-Anomalie oculaire
-L’anomalie oculaire est présente dans 10 % de la population générale, mais d’autres syndromes comporte cette anomalie comme le syndrome de Rieger et syndrome de Bannayan-Riley-Ruvalcaba.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Syndrome_d%27Alagille</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Œil et vue/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syndrome_d%27Alagille</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Diagnostic prénatal</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le diagnostic prénatal est possible si l’anomalie génétique est identifiée[6]. Mais le diagnostic prénatal ne peut pas prédire la gravité de l’atteinte.
-</t>
+Syndrome de Williams</t>
         </is>
       </c>
     </row>
@@ -674,7 +695,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Alagille</t>
+          <t>Syndrome_d'Alagille</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -689,10 +710,118 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Diagnostic différentiel</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tétralogie de Fallot</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Microdélétion 22q11</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Syndrome_d'Alagille</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_d%27Alagille</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Diagnostic différentiel</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Anomalie oculaire</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’anomalie oculaire est présente dans 10 % de la population générale, mais d’autres syndromes comporte cette anomalie comme le syndrome de Rieger et syndrome de Bannayan-Riley-Ruvalcaba.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Syndrome_d'Alagille</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_d%27Alagille</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Diagnostic prénatal</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le diagnostic prénatal est possible si l’anomalie génétique est identifiée. Mais le diagnostic prénatal ne peut pas prédire la gravité de l’atteinte.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Syndrome_d'Alagille</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_d%27Alagille</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Conseil génétique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Les parents d’un enfant porteur d’une mutation de novo de la maladie ont une augmentation du risque d’avoir un autre enfant atteint par cette maladie.
 </t>
